--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -487,38 +492,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·代号鸢Only——绣衣楼过大年</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>黄姑山路51-4号 0101park</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.13 20:00</t>
+          <t>2024.01.27 11:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1219</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+        <v>970</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79350&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/fsCnC2E81702888590146.jpeg</t>
         </is>
       </c>
     </row>
@@ -528,38 +536,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展</t>
+          <t>杭州·VOCALOID ONLY（取消）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>九环路7号 杭州鑫牛大厦</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.13 09:30-01.14 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1973</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>118</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79640&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/2Znkbtbv1704250050863.jpeg</t>
         </is>
       </c>
     </row>
@@ -569,38 +580,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展 声动杭州CV专场-杜冥鸦、穆雪婷、秦紫翼、牧野冥姬</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 16:45</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>428</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>847</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79646&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202310/n3gFbUkJ1698202692701.jpeg</t>
         </is>
       </c>
     </row>
@@ -610,38 +624,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·凡多姆海威降雪宴会·黑执事ONLY</t>
+          <t>杭州·心动次元动漫游戏展</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>凤凰御元艺术基地1138园区9号楼绿房子 迷邓花园</t>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.13 12:30-01.13 21:00</t>
+          <t>2024.02.01 10:30-02.01 16:30</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>159</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80021&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/RPFhOk511704875616895.jpeg</t>
         </is>
       </c>
     </row>
@@ -651,38 +668,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·温馨国乙only</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 17:00</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>6732</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79169&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/Fw2o6b8G1702608399635.jpeg</t>
         </is>
       </c>
     </row>
@@ -692,38 +712,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·漫次元--茶话会</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>萧杭路615号2排左转到头16幢 Ciao Shed梧桐小院</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 22:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>2722</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80448&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/ZynJSATH1699345668160.jpeg</t>
         </is>
       </c>
     </row>
@@ -733,38 +756,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>486</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>906</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/6wBH689v1702638477003.jpeg</t>
         </is>
       </c>
     </row>
@@ -774,38 +800,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>金桥北路1号 富阳东方茂</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.21 17:00</t>
+          <t>2024.02.04 10:30-02.04 16:30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>116</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>259</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Py42pqWv1704876608125.jpeg</t>
         </is>
       </c>
     </row>
@@ -815,38 +844,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>73</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+        <v>745</v>
+      </c>
+      <c r="G10" t="n">
+        <v>68</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/NvdrSehn1698391117573.jpeg</t>
         </is>
       </c>
     </row>
@@ -856,38 +888,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>巧客街88号 钱塘小雅田园中心</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.02.05 10:00-02.05 20:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>139</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+        <v>508</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/hJ9czIvz1705910017193.jpeg</t>
         </is>
       </c>
     </row>
@@ -897,38 +932,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
+          <t>2024.02.07 10:00-02.07 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>773</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/BWYzYuBW1705030650858.jpeg</t>
         </is>
       </c>
     </row>
@@ -938,38 +976,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·小情侣only</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.14 10:00-02.14 18:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="G13" t="n">
+        <v>88</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81088</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/mg76jpu81705643322225.jpeg</t>
         </is>
       </c>
     </row>
@@ -979,38 +1020,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>850</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>366</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/JAPoQ5pq1703226277836.jpeg</t>
         </is>
       </c>
     </row>
@@ -1020,38 +1064,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3617</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>816</v>
+      </c>
+      <c r="G15" t="n">
+        <v>60</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FrKjHyyu1702971763457.jpeg</t>
         </is>
       </c>
     </row>
@@ -1061,38 +1108,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·第六届YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2742</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>2411</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/cYpLgik81703819171170.jpeg</t>
         </is>
       </c>
     </row>
@@ -1102,38 +1152,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>822</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="G17" t="n">
+        <v>138</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81128</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/kXKTau2B1705650353850.jpeg</t>
         </is>
       </c>
     </row>
@@ -1143,38 +1196,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>597</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>170</v>
+      </c>
+      <c r="G18" t="n">
+        <v>65</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/ZlI1Z4Xh1704266621625.jpeg</t>
         </is>
       </c>
     </row>
@@ -1184,38 +1240,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.24 11:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>332</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>733</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/HMGhhQPS1702884424386.jpeg</t>
         </is>
       </c>
     </row>
@@ -1225,38 +1284,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州· young comic漾动漫嘉年华</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.03.02 09:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>702</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>70</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81117</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/W36q04zR1705649316435.jpeg</t>
         </is>
       </c>
     </row>
@@ -1266,38 +1328,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·杭州灵能百分百only</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>水博大道118号 宝盛水博园大酒店</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.03.02 09:30-03.02 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1197</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>398</v>
+      </c>
+      <c r="G21" t="n">
+        <v>89</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/O6Gy2Re21704184555408.jpeg</t>
         </is>
       </c>
     </row>
@@ -1307,38 +1372,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="G22" t="n">
+        <v>70</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81211</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/LpUZjVtC1705906700274.jpeg</t>
         </is>
       </c>
     </row>
@@ -1348,38 +1416,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>672</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>176</v>
+      </c>
+      <c r="G23" t="n">
+        <v>65</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9abgpzRQ1704452704753.jpeg</t>
         </is>
       </c>
     </row>
@@ -1389,38 +1460,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·杭州灵能百分百only</t>
+          <t>杭州·ComicMe动漫嘉年华</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>水博大道118号 宝盛水博园大酒店</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.03.02 09:30-03.02 17:00</t>
+          <t>2024.03.16 09:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>271</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81214</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/iN5DafVM1705907838033.jpeg</t>
         </is>
       </c>
     </row>
@@ -1430,38 +1504,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州·OZ·富坚义博only</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>74</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>84</v>
+      </c>
+      <c r="G25" t="n">
+        <v>88</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81151</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/CxqdeAPa1705658329588.jpeg</t>
         </is>
       </c>
     </row>
@@ -1471,38 +1548,305 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.04.04</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>杭州·SST动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024.03.16 09:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" t="n">
+        <v>68</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81196</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/yFyT2uAT1705897787652.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>杭州·排球少年*蓝锁ONLY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>116</v>
+      </c>
+      <c r="G27" t="n">
+        <v>60</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81075</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9AL6kYuj1705634962275.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>杭州·第十届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>78</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81136</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/w8iHjfOA1705651976885.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>杭州·筑梦城堡巡回展降临之章</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大岭山路156号 爱丽芬城堡</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>28</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81217</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/oEILAgir1705908585941.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>289</v>
+      </c>
+      <c r="G30" t="n">
+        <v>75</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80905</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/D3QaPamg1705397424553.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>70</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81078</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/o4cl1vwE1705635692432.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>杭州·第九届萌次元动漫嘉年华</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2024.04.04 10:00-04.05 17:00</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>217</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
+      <c r="F32" t="n">
+        <v>225</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/8jSeAOZH1700636327971.jpeg</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,6 +1913,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1576,38 +1925,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·二十四伎乐戏剧国风音乐会《唐·宫乐宴》</t>
+          <t>杭州·《天空之城》久石让·宫崎骏动漫经典作品音乐会|浙江电影爱乐乐团</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>建国南路280号 杭州红星剧院</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.07 19:30-01.07 21:00</t>
+          <t>2024.01.27 19:30-01.27 21:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78555&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80903</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/jZsCde491705396008863.jpeg</t>
         </is>
       </c>
     </row>
@@ -1617,38 +1969,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·SACG二次元live夜场（取消）</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.12 19:00-01.12 22:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>89</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FmxbBxzF1702885022073.jpeg</t>
         </is>
       </c>
     </row>
@@ -1658,38 +2013,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.13 14:00-01.13 15:30</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202309/LLUVyWRA1694484996221.jpeg</t>
         </is>
       </c>
     </row>
@@ -1699,12 +2057,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1714,23 +2072,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.02.17 10:00-02.17 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80948</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/jNgwYzo01705479944216.jpeg</t>
         </is>
       </c>
     </row>
@@ -1740,38 +2101,85 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·《卡农》永恒经典名曲音乐会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.02.24 19:30-02.24 21:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80904</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/56p4IV4Q1705396799583.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>杭州· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>金沙大道681号 金沙湖大剧院</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024.04.27 19:30-04.27 21:30</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>180</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80936</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/qqwyEQLF1705476706621.jpeg</t>
         </is>
       </c>
     </row>
@@ -1786,7 +2194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,6 +2246,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1845,7 +2258,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.12.30</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1864,19 +2277,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>104</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+        <v>181</v>
+      </c>
+      <c r="G2" t="n">
+        <v>108</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80137</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/TRE8uUjw1703229665251.png</t>
         </is>
       </c>
     </row>
@@ -1891,7 +2307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,6 +2359,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1950,7 +2371,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.12.30</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1969,19 +2390,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>104</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+        <v>181</v>
+      </c>
+      <c r="G2" t="n">
+        <v>108</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80137</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/TRE8uUjw1703229665251.png</t>
         </is>
       </c>
     </row>
@@ -1991,38 +2415,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·二十四伎乐戏剧国风音乐会《唐·宫乐宴》</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>建国南路280号 杭州红星剧院</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.07 19:30-01.07 21:00</t>
+          <t>2024.01.27 11:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+        <v>970</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78555&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/fsCnC2E81702888590146.jpeg</t>
         </is>
       </c>
     </row>
@@ -2032,38 +2459,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·SACG二次元live夜场（取消）</t>
+          <t>杭州·VOCALOID ONLY（取消）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
+          <t>九环路7号 杭州鑫牛大厦</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.12 19:00-01.12 22:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>118</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/2Znkbtbv1704250050863.jpeg</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2503,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
+          <t>杭州·《天空之城》久石让·宫崎骏动漫经典作品音乐会|浙江电影爱乐乐团</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2088,23 +2518,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.13 14:00-01.13 15:30</t>
+          <t>2024.01.27 19:30-01.27 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>90</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80903</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/jZsCde491705396008863.jpeg</t>
         </is>
       </c>
     </row>
@@ -2114,38 +2547,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·代号鸢Only——绣衣楼过大年</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>黄姑山路51-4号 0101park</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.13 20:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1219</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+        <v>847</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79350&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202310/n3gFbUkJ1698202692701.jpeg</t>
         </is>
       </c>
     </row>
@@ -2155,38 +2591,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.13 09:30-01.14 17:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>89</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79640&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FmxbBxzF1702885022073.jpeg</t>
         </is>
       </c>
     </row>
@@ -2196,38 +2635,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展 声动杭州CV专场-杜冥鸦、穆雪婷、秦紫翼、牧野冥姬</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 16:45</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>428</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79646&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202309/LLUVyWRA1694484996221.jpeg</t>
         </is>
       </c>
     </row>
@@ -2237,38 +2679,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·凡多姆海威降雪宴会·黑执事ONLY</t>
+          <t>杭州·心动次元动漫游戏展</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>凤凰御元艺术基地1138园区9号楼绿房子 迷邓花园</t>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.13 12:30-01.13 21:00</t>
+          <t>2024.02.01 10:30-02.01 16:30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>159</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80021&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/RPFhOk511704875616895.jpeg</t>
         </is>
       </c>
     </row>
@@ -2278,38 +2723,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·温馨国乙only</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 17:00</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>6732</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79169&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/Fw2o6b8G1702608399635.jpeg</t>
         </is>
       </c>
     </row>
@@ -2319,38 +2767,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·漫次元--茶话会</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>萧杭路615号2排左转到头16幢 Ciao Shed梧桐小院</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 22:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>2722</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80448&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/ZynJSATH1699345668160.jpeg</t>
         </is>
       </c>
     </row>
@@ -2360,38 +2811,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>486</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>906</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/6wBH689v1702638477003.jpeg</t>
         </is>
       </c>
     </row>
@@ -2401,38 +2855,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>金桥北路1号 富阳东方茂</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.21 17:00</t>
+          <t>2024.02.04 10:30-02.04 16:30</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>116</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>259</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Py42pqWv1704876608125.jpeg</t>
         </is>
       </c>
     </row>
@@ -2442,38 +2899,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>73</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+        <v>745</v>
+      </c>
+      <c r="G14" t="n">
+        <v>68</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/NvdrSehn1698391117573.jpeg</t>
         </is>
       </c>
     </row>
@@ -2483,38 +2943,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>巧客街88号 钱塘小雅田园中心</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.02.05 10:00-02.05 20:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>139</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+        <v>508</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/hJ9czIvz1705910017193.jpeg</t>
         </is>
       </c>
     </row>
@@ -2524,38 +2987,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
+          <t>2024.02.07 10:00-02.07 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>773</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>50</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/BWYzYuBW1705030650858.jpeg</t>
         </is>
       </c>
     </row>
@@ -2565,38 +3031,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·小情侣only</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.14 10:00-02.14 18:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="G17" t="n">
+        <v>88</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81088</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/mg76jpu81705643322225.jpeg</t>
         </is>
       </c>
     </row>
@@ -2606,38 +3075,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>850</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>366</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/JAPoQ5pq1703226277836.jpeg</t>
         </is>
       </c>
     </row>
@@ -2647,38 +3119,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+        <v>816</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FrKjHyyu1702971763457.jpeg</t>
         </is>
       </c>
     </row>
@@ -2688,38 +3163,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.02.17 10:00-02.17 21:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>58</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80948</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/jNgwYzo01705479944216.jpeg</t>
         </is>
       </c>
     </row>
@@ -2729,38 +3207,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·第六届YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3617</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>2411</v>
+      </c>
+      <c r="G21" t="n">
+        <v>65</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/cYpLgik81703819171170.jpeg</t>
         </is>
       </c>
     </row>
@@ -2770,38 +3251,41 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2742</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="G22" t="n">
+        <v>138</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81128</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/kXKTau2B1705650353850.jpeg</t>
         </is>
       </c>
     </row>
@@ -2811,38 +3295,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·《卡农》永恒经典名曲音乐会</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.24 19:30-02.24 21:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>822</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>90</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80904</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/56p4IV4Q1705396799583.png</t>
         </is>
       </c>
     </row>
@@ -2852,38 +3339,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>597</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>170</v>
+      </c>
+      <c r="G24" t="n">
+        <v>65</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/ZlI1Z4Xh1704266621625.jpeg</t>
         </is>
       </c>
     </row>
@@ -2893,38 +3383,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.24 11:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>332</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>733</v>
+      </c>
+      <c r="G25" t="n">
+        <v>50</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/HMGhhQPS1702884424386.jpeg</t>
         </is>
       </c>
     </row>
@@ -2934,38 +3427,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州· young comic漾动漫嘉年华</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.03.02 09:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>702</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>70</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81117</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/W36q04zR1705649316435.jpeg</t>
         </is>
       </c>
     </row>
@@ -2975,38 +3471,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·杭州灵能百分百only</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>水博大道118号 宝盛水博园大酒店</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.03.02 09:30-03.02 17:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1197</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>398</v>
+      </c>
+      <c r="G27" t="n">
+        <v>89</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/O6Gy2Re21704184555408.jpeg</t>
         </is>
       </c>
     </row>
@@ -3016,38 +3515,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>70</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81211</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/LpUZjVtC1705906700274.jpeg</t>
         </is>
       </c>
     </row>
@@ -3057,38 +3559,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>672</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>176</v>
+      </c>
+      <c r="G29" t="n">
+        <v>65</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9abgpzRQ1704452704753.jpeg</t>
         </is>
       </c>
     </row>
@@ -3098,38 +3603,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>杭州·杭州灵能百分百only</t>
+          <t>杭州·ComicMe动漫嘉年华</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>水博大道118号 宝盛水博园大酒店</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.02 09:30-03.02 17:00</t>
+          <t>2024.03.16 09:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>271</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>60</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81214</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/iN5DafVM1705907838033.jpeg</t>
         </is>
       </c>
     </row>
@@ -3139,38 +3647,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州·OZ·富坚义博only</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>74</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>84</v>
+      </c>
+      <c r="G31" t="n">
+        <v>88</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81151</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/CxqdeAPa1705658329588.jpeg</t>
         </is>
       </c>
     </row>
@@ -3180,38 +3691,349 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024.04.04</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>杭州·SST动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024.03.16 09:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" t="n">
+        <v>68</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81196</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/yFyT2uAT1705897787652.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>杭州·排球少年*蓝锁ONLY</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>116</v>
+      </c>
+      <c r="G33" t="n">
+        <v>60</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81075</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9AL6kYuj1705634962275.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>杭州·第十届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>78</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81136</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/w8iHjfOA1705651976885.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>杭州·筑梦城堡巡回展降临之章</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大岭山路156号 爱丽芬城堡</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81217</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/oEILAgir1705908585941.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>289</v>
+      </c>
+      <c r="G36" t="n">
+        <v>75</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80905</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/D3QaPamg1705397424553.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>70</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81078</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/o4cl1vwE1705635692432.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>杭州·第九届萌次元动漫嘉年华</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024.04.04 10:00-04.05 17:00</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>217</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
+      <c r="F38" t="n">
+        <v>225</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/8jSeAOZH1700636327971.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>杭州· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>金沙大道681号 金沙湖大剧院</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024.04.27 19:30-04.27 21:30</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>180</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80936</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/qqwyEQLF1705476706621.jpeg</t>
         </is>
       </c>
     </row>

--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -511,20 +506,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/fsCnC2E81702888590146.jpeg</t>
         </is>
@@ -536,41 +528,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY（取消）</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>118</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/2Znkbtbv1704250050863.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202310/n3gFbUkJ1698202692701.jpeg</t>
         </is>
       </c>
     </row>
@@ -580,41 +571,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>富阳·原神&amp;崩铁&amp;崩坏only</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>金桥北路与横凉亭路交叉口西北角 东方茂购物中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>847</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80992</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202310/n3gFbUkJ1698202692701.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/3vmxW0TA1705548094855.jpeg</t>
         </is>
       </c>
     </row>
@@ -624,41 +612,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·心动次元动漫游戏展</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.01 10:30-02.01 16:30</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>7457</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80708</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/RPFhOk511704875616895.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/Fw2o6b8G1702608399635.jpeg</t>
         </is>
       </c>
     </row>
@@ -673,36 +658,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6732</v>
-      </c>
-      <c r="G6" t="n">
-        <v>70</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>2715</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/Fw2o6b8G1702608399635.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/ZynJSATH1699345668160.jpeg</t>
         </is>
       </c>
     </row>
@@ -717,36 +701,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2722</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>926</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/ZynJSATH1699345668160.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/6wBH689v1702638477003.jpeg</t>
         </is>
       </c>
     </row>
@@ -756,41 +739,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>金桥北路1号 富阳东方茂</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.04 10:30-02.04 16:30</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>906</v>
+        <v>282</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/6wBH689v1702638477003.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Py42pqWv1704876608125.jpeg</t>
         </is>
       </c>
     </row>
@@ -805,36 +785,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富阳·原X铁X崩ONLY</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>金桥北路1号 富阳东方茂</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.02.04 10:30-02.04 16:30</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>259</v>
+        <v>778</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80711</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Py42pqWv1704876608125.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/NvdrSehn1698391117573.jpeg</t>
         </is>
       </c>
     </row>
@@ -844,41 +821,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.05 10:00-02.05 20:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>745</v>
+        <v>573</v>
       </c>
       <c r="G10" t="n">
-        <v>68</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202310/NvdrSehn1698391117573.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/hJ9czIvz1705910017193.jpeg</t>
         </is>
       </c>
     </row>
@@ -888,41 +862,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·小情侣only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.05 10:00-02.05 20:00</t>
+          <t>2024.02.14 10:00-02.14 18:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81088</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/hJ9czIvz1705910017193.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/mg76jpu81705643322225.jpeg</t>
         </is>
       </c>
     </row>
@@ -932,41 +903,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建德·星之漫游戏嘉年华</t>
+          <t>杭州·恋爱告急动漫游戏展</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>桥东路一号1号 皇爵君廷大酒店</t>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.07 10:00-02.07 17:00</t>
+          <t>2024.02.14 10:30-02.14 16:30</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80666</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/BWYzYuBW1705030650858.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/de0lsSbz1706180254353.jpeg</t>
         </is>
       </c>
     </row>
@@ -976,41 +944,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·小情侣only</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 18:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" t="n">
-        <v>88</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81088</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/mg76jpu81705643322225.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/JAPoQ5pq1703226277836.jpeg</t>
         </is>
       </c>
     </row>
@@ -1025,36 +992,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>366</v>
+        <v>851</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/JAPoQ5pq1703226277836.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FrKjHyyu1702971763457.jpeg</t>
         </is>
       </c>
     </row>
@@ -1064,41 +1028,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州·第六届YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>816</v>
+        <v>2989</v>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/FrKjHyyu1702971763457.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/cYpLgik81703819171170.jpeg</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1074,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州·第六届YH樱花动漫游戏文化节</t>
+          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1127,22 +1088,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2411</v>
+        <v>171</v>
       </c>
       <c r="G16" t="n">
-        <v>65</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81128</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/cYpLgik81703819171170.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/kXKTau2B1705650353850.jpeg</t>
         </is>
       </c>
     </row>
@@ -1152,41 +1110,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
+          <t>杭州·美哉美物 动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>新街街道通城路598号 粮仓艺术公园</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.02.23 10:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G17" t="n">
-        <v>138</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81393</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81128</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/kXKTau2B1705650353850.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/nXpdoSAk1706154911514.jpeg</t>
         </is>
       </c>
     </row>
@@ -1215,20 +1170,17 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>170</v>
+        <v>675</v>
       </c>
       <c r="G18" t="n">
         <v>65</v>
       </c>
-      <c r="H18" t="b">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202401/ZlI1Z4Xh1704266621625.jpeg</t>
         </is>
@@ -1259,20 +1211,17 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="G19" t="n">
         <v>50</v>
       </c>
-      <c r="H19" t="b">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/HMGhhQPS1702884424386.jpeg</t>
         </is>
@@ -1303,20 +1252,17 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
         <v>70</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81117</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81117</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/W36q04zR1705649316435.jpeg</t>
         </is>
@@ -1347,20 +1293,17 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="G21" t="n">
         <v>89</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/O6Gy2Re21704184555408.jpeg</t>
         </is>
@@ -1377,36 +1320,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.03.09 10:00-03.09 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>70</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81211</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/LpUZjVtC1705906700274.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/BWYzYuBW1705030650858.jpeg</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1361,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1435,22 +1375,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G23" t="n">
-        <v>65</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81211</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/9abgpzRQ1704452704753.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/LpUZjVtC1705906700274.jpeg</t>
         </is>
       </c>
     </row>
@@ -1460,41 +1397,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·ComicMe动漫嘉年华</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>长江南路336号 白马湖国际会展中心</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.03.16 09:00-03.17 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81214</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/iN5DafVM1705907838033.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9abgpzRQ1704452704753.jpeg</t>
         </is>
       </c>
     </row>
@@ -1509,36 +1443,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州·OZ·富坚义博only</t>
+          <t>杭州·ComicMe动漫嘉年华</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 17:00</t>
+          <t>2024.03.16 09:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="G25" t="n">
-        <v>88</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81214</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81151</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/CxqdeAPa1705658329588.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/iN5DafVM1705907838033.jpeg</t>
         </is>
       </c>
     </row>
@@ -1553,36 +1484,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>杭州·SST动漫嘉年华</t>
+          <t>杭州·ComicMe动漫嘉年华 · 胡良伟专场</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>沈半路171号 Tcar汽车文化主题公园</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.03.16 09:00-03.17 17:00</t>
+          <t>2024.03.16 12:30-03.16 16:30</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="G26" t="n">
-        <v>68</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81382</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81196</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/yFyT2uAT1705897787652.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4UJgRWeM1706151833915.jpeg</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1525,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>杭州·排球少年*蓝锁ONLY</t>
+          <t>杭州·OZ·富坚义博only</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1611,22 +1539,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81151</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81075</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/9AL6kYuj1705634962275.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/CxqdeAPa1705658329588.jpeg</t>
         </is>
       </c>
     </row>
@@ -1641,36 +1566,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>杭州·第十届次元鹿角动漫游戏展</t>
+          <t>杭州·SST动漫嘉年华</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 17:00</t>
+          <t>2024.03.16 09:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="G28" t="n">
-        <v>78</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81196</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81136</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/w8iHjfOA1705651976885.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/yFyT2uAT1705897787652.jpeg</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1607,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>杭州·筑梦城堡巡回展降临之章</t>
+          <t>杭州·排球少年*蓝锁ONLY</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大岭山路156号 爱丽芬城堡</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1699,22 +1621,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81075</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81217</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/oEILAgir1705908585941.png</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9AL6kYuj1705634962275.jpeg</t>
         </is>
       </c>
     </row>
@@ -1724,41 +1643,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>杭州·AD02动漫展</t>
+          <t>杭州·第十届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.24 17:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>75</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81136</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80905</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/D3QaPamg1705397424553.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/w8iHjfOA1705651976885.jpeg</t>
         </is>
       </c>
     </row>
@@ -1768,41 +1684,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+          <t>杭州·筑梦城堡巡回展降临之章（取消）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>大岭山路156号 爱丽芬城堡</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
-      </c>
-      <c r="G31" t="n">
-        <v>70</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81217</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81078</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/o4cl1vwE1705635692432.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/oEILAgir1705908585941.png</t>
         </is>
       </c>
     </row>
@@ -1812,41 +1727,245 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>杭州·ComicMe动漫嘉年华 · 马正阳专场</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>长江南路336号 白马湖国际会展中心</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024.03.17 12:30-03.17 16:30</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>359</v>
+      </c>
+      <c r="G32" t="n">
+        <v>218</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81375</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/rNzSh0nq1706149891822.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>423</v>
+      </c>
+      <c r="G33" t="n">
+        <v>75</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80905</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/D3QaPamg1705397424553.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展  岩永彻也内场票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024.03.24 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>23</v>
+      </c>
+      <c r="G34" t="n">
+        <v>528</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81239</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/hww9WUpD1705914756383.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>2024-04-04</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>70</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81078</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/o4cl1vwE1705635692432.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>杭州·第九届萌次元动漫嘉年华</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2024.04.04 10:00-04.05 17:00</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>225</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="F36" t="n">
+        <v>226</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78866</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202311/8jSeAOZH1700636327971.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>杭州·2024ESCC游戏电竞博览会暨新次元微光青春动漫交流会</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024.04.05 09:30-04.05 16:30</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>68</v>
+      </c>
+      <c r="G37" t="n">
+        <v>75</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81450</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/49hIEgVb1706252734479.jpeg</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,15 +2024,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -1925,41 +2039,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·《天空之城》久石让·宫崎骏动漫经典作品音乐会|浙江电影爱乐乐团</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.27 19:30-01.27 21:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80903</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/jZsCde491705396008863.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FmxbBxzF1702885022073.jpeg</t>
         </is>
       </c>
     </row>
@@ -1969,41 +2080,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
-      </c>
-      <c r="G3" t="n">
-        <v>89</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/FmxbBxzF1702885022073.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202309/LLUVyWRA1694484996221.jpeg</t>
         </is>
       </c>
     </row>
@@ -2013,41 +2123,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.02.17 10:00-02.17 21:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80948</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202309/LLUVyWRA1694484996221.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/jNgwYzo01705479944216.jpeg</t>
         </is>
       </c>
     </row>
@@ -2057,41 +2164,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
+          <t>杭州·《卡农》永恒经典名曲音乐会</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.17 21:00</t>
+          <t>2024.02.24 19:30-02.24 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80904</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80948</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/jNgwYzo01705479944216.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/56p4IV4Q1705396799583.png</t>
         </is>
       </c>
     </row>
@@ -2101,41 +2205,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·《卡农》永恒经典名曲音乐会</t>
+          <t>杭州·大船文化·终极无伴奏——宁峰演绎伊萨伊与帕格尼尼音乐会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>杭州市江干区新业路39号 杭州大剧院</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.24 19:30-02.24 21:00</t>
+          <t>2024.02.25 19:30-02.25 21:10</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81311</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80904</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/56p4IV4Q1705396799583.png</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/k53cbfSX1706006394089.jpeg</t>
         </is>
       </c>
     </row>
@@ -2164,20 +2265,17 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>180</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80936</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80936</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/qqwyEQLF1705476706621.jpeg</t>
         </is>
@@ -2194,7 +2292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,15 +2336,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2277,20 +2370,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
         <v>108</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80137</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80137</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/TRE8uUjw1703229665251.png</t>
         </is>
@@ -2307,7 +2397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,15 +2441,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -2390,20 +2475,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
         <v>108</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80137</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80137</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/TRE8uUjw1703229665251.png</t>
         </is>
@@ -2434,20 +2516,17 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>//i0.hdslb.com/bfs/openplatform/202312/fsCnC2E81702888590146.jpeg</t>
         </is>
@@ -2459,41 +2538,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY（取消）</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>118</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/2Znkbtbv1704250050863.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202310/n3gFbUkJ1698202692701.jpeg</t>
         </is>
       </c>
     </row>
@@ -2503,41 +2581,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·《天空之城》久石让·宫崎骏动漫经典作品音乐会|浙江电影爱乐乐团</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.27 19:30-01.27 21:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80903</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/jZsCde491705396008863.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FmxbBxzF1702885022073.jpeg</t>
         </is>
       </c>
     </row>
@@ -2547,41 +2622,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>847</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202310/n3gFbUkJ1698202692701.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202309/LLUVyWRA1694484996221.jpeg</t>
         </is>
       </c>
     </row>
@@ -2591,41 +2665,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>富阳·原神&amp;崩铁&amp;崩坏only</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>金桥北路与横凉亭路交叉口西北角 东方茂购物中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>89</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80992</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/FmxbBxzF1702885022073.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/3vmxW0TA1705548094855.jpeg</t>
         </is>
       </c>
     </row>
@@ -2635,41 +2706,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>7457</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202309/LLUVyWRA1694484996221.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/Fw2o6b8G1702608399635.jpeg</t>
         </is>
       </c>
     </row>
@@ -2679,41 +2747,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·心动次元动漫游戏展</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.02.01 10:30-02.01 16:30</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
-      </c>
-      <c r="G9" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>2715</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80708</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/RPFhOk511704875616895.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/ZynJSATH1699345668160.jpeg</t>
         </is>
       </c>
     </row>
@@ -2728,36 +2795,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6732</v>
-      </c>
-      <c r="G10" t="n">
-        <v>70</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>926</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/Fw2o6b8G1702608399635.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/6wBH689v1702638477003.jpeg</t>
         </is>
       </c>
     </row>
@@ -2767,41 +2833,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>金桥北路1号 富阳东方茂</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.04 10:30-02.04 16:30</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2722</v>
+        <v>282</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/ZynJSATH1699345668160.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/Py42pqWv1704876608125.jpeg</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2874,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2826,26 +2889,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>906</v>
+        <v>778</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/6wBH689v1702638477003.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/NvdrSehn1698391117573.jpeg</t>
         </is>
       </c>
     </row>
@@ -2855,41 +2915,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富阳·原X铁X崩ONLY</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>金桥北路1号 富阳东方茂</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.02.04 10:30-02.04 16:30</t>
+          <t>2024.02.05 10:00-02.05 20:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>259</v>
+        <v>573</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80711</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/Py42pqWv1704876608125.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/hJ9czIvz1705910017193.jpeg</t>
         </is>
       </c>
     </row>
@@ -2899,41 +2956,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·小情侣only</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.14 10:00-02.14 18:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>745</v>
+        <v>78</v>
       </c>
       <c r="G14" t="n">
-        <v>68</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81088</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202310/NvdrSehn1698391117573.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/mg76jpu81705643322225.jpeg</t>
         </is>
       </c>
     </row>
@@ -2943,41 +2997,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·恋爱告急动漫游戏展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.02.05 10:00-02.05 20:00</t>
+          <t>2024.02.14 10:30-02.14 16:30</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>508</v>
+        <v>62</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/hJ9czIvz1705910017193.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/de0lsSbz1706180254353.jpeg</t>
         </is>
       </c>
     </row>
@@ -2987,41 +3038,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建德·星之漫游戏嘉年华</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>桥东路一号1号 皇爵君廷大酒店</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.07 10:00-02.07 17:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>50</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>374</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80666</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/BWYzYuBW1705030650858.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202312/JAPoQ5pq1703226277836.jpeg</t>
         </is>
       </c>
     </row>
@@ -3031,41 +3081,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·小情侣only</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 18:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>851</v>
       </c>
       <c r="G17" t="n">
-        <v>88</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81088</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/mg76jpu81705643322225.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/FrKjHyyu1702971763457.jpeg</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3122,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3090,26 +3137,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.17 10:00-02.17 21:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80948</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202312/JAPoQ5pq1703226277836.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/jNgwYzo01705479944216.jpeg</t>
         </is>
       </c>
     </row>
@@ -3119,41 +3163,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州·第六届YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>816</v>
+        <v>2989</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/FrKjHyyu1702971763457.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/cYpLgik81703819171170.jpeg</t>
         </is>
       </c>
     </row>
@@ -3168,36 +3209,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
+          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.17 21:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="G20" t="n">
-        <v>58</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81128</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80948</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/jNgwYzo01705479944216.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/kXKTau2B1705650353850.jpeg</t>
         </is>
       </c>
     </row>
@@ -3207,41 +3245,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·第六届YH樱花动漫游戏文化节</t>
+          <t>杭州·美哉美物 动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>新街街道通城路598号 粮仓艺术公园</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.02.23 10:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2411</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>65</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81393</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/cYpLgik81703819171170.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/nXpdoSAk1706154911514.jpeg</t>
         </is>
       </c>
     </row>
@@ -3251,41 +3286,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
+          <t>杭州·《卡农》永恒经典名曲音乐会</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.02.24 19:30-02.24 21:00</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
         <v>90</v>
       </c>
-      <c r="G22" t="n">
-        <v>138</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80904</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81128</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/kXKTau2B1705650353850.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/56p4IV4Q1705396799583.png</t>
         </is>
       </c>
     </row>
@@ -3300,36 +3332,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州·《卡农》永恒经典名曲音乐会</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.24 19:30-02.24 21:00</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>675</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80904</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/56p4IV4Q1705396799583.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/ZlI1Z4Xh1704266621625.jpeg</t>
         </is>
       </c>
     </row>
@@ -3344,36 +3373,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
+          <t>2024.02.24 11:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>170</v>
+        <v>745</v>
       </c>
       <c r="G24" t="n">
-        <v>65</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/ZlI1Z4Xh1704266621625.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/HMGhhQPS1702884424386.jpeg</t>
         </is>
       </c>
     </row>
@@ -3383,41 +3409,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州·大船文化·终极无伴奏——宁峰演绎伊萨伊与帕格尼尼音乐会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>杭州市江干区新业路39号 杭州大剧院</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
+          <t>2024.02.25 19:30-02.25 21:10</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>733</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81311</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/HMGhhQPS1702884424386.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/k53cbfSX1706006394089.jpeg</t>
         </is>
       </c>
     </row>
@@ -3446,20 +3469,17 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G26" t="n">
         <v>70</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81117</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81117</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/W36q04zR1705649316435.jpeg</t>
         </is>
@@ -3490,20 +3510,17 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="G27" t="n">
         <v>89</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/O6Gy2Re21704184555408.jpeg</t>
         </is>
@@ -3520,36 +3537,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.03.09 10:00-03.09 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>70</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81211</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/LpUZjVtC1705906700274.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/BWYzYuBW1705030650858.jpeg</t>
         </is>
       </c>
     </row>
@@ -3564,12 +3578,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3578,22 +3592,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G29" t="n">
-        <v>65</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81211</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/9abgpzRQ1704452704753.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/LpUZjVtC1705906700274.jpeg</t>
         </is>
       </c>
     </row>
@@ -3603,41 +3614,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>杭州·ComicMe动漫嘉年华</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>长江南路336号 白马湖国际会展中心</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.16 09:00-03.17 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81214</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/iN5DafVM1705907838033.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9abgpzRQ1704452704753.jpeg</t>
         </is>
       </c>
     </row>
@@ -3652,36 +3660,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>杭州·OZ·富坚义博only</t>
+          <t>杭州·ComicMe动漫嘉年华</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 17:00</t>
+          <t>2024.03.16 09:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="G31" t="n">
-        <v>88</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81214</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81151</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/CxqdeAPa1705658329588.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/iN5DafVM1705907838033.jpeg</t>
         </is>
       </c>
     </row>
@@ -3696,36 +3701,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>杭州·SST动漫嘉年华</t>
+          <t>杭州·ComicMe动漫嘉年华 · 胡良伟专场</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>沈半路171号 Tcar汽车文化主题公园</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024.03.16 09:00-03.17 17:00</t>
+          <t>2024.03.16 12:30-03.16 16:30</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="G32" t="n">
-        <v>68</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81382</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81196</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/yFyT2uAT1705897787652.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/4UJgRWeM1706151833915.jpeg</t>
         </is>
       </c>
     </row>
@@ -3740,12 +3742,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>杭州·排球少年*蓝锁ONLY</t>
+          <t>杭州·OZ·富坚义博only</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3754,22 +3756,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81151</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81075</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/9AL6kYuj1705634962275.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/CxqdeAPa1705658329588.jpeg</t>
         </is>
       </c>
     </row>
@@ -3784,36 +3783,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>杭州·第十届次元鹿角动漫游戏展</t>
+          <t>杭州·SST动漫嘉年华</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 17:00</t>
+          <t>2024.03.16 09:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="G34" t="n">
-        <v>78</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81196</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81136</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/w8iHjfOA1705651976885.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/yFyT2uAT1705897787652.jpeg</t>
         </is>
       </c>
     </row>
@@ -3828,12 +3824,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>杭州·筑梦城堡巡回展降临之章</t>
+          <t>杭州·排球少年*蓝锁ONLY</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大岭山路156号 爱丽芬城堡</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3842,22 +3838,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="G35" t="n">
-        <v>28</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81075</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81217</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/oEILAgir1705908585941.png</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/9AL6kYuj1705634962275.jpeg</t>
         </is>
       </c>
     </row>
@@ -3867,41 +3860,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>杭州·AD02动漫展</t>
+          <t>杭州·第十届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.24 17:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>75</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81136</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80905</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/D3QaPamg1705397424553.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/w8iHjfOA1705651976885.jpeg</t>
         </is>
       </c>
     </row>
@@ -3911,41 +3901,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+          <t>杭州·筑梦城堡巡回展降临之章（取消）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>大岭山路156号 爱丽芬城堡</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
-      </c>
-      <c r="G37" t="n">
-        <v>70</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81217</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81078</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/o4cl1vwE1705635692432.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/oEILAgir1705908585941.png</t>
         </is>
       </c>
     </row>
@@ -3955,41 +3944,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>杭州·第九届萌次元动漫嘉年华</t>
+          <t>杭州·ComicMe动漫嘉年华 · 马正阳专场</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+          <t>长江南路336号 白马湖国际会展中心</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
+          <t>2024.03.17 12:30-03.17 16:30</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>225</v>
+        <v>359</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81375</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202311/8jSeAOZH1700636327971.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/rNzSh0nq1706149891822.jpeg</t>
         </is>
       </c>
     </row>
@@ -3999,39 +3985,243 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>423</v>
+      </c>
+      <c r="G39" t="n">
+        <v>75</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80905</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/D3QaPamg1705397424553.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展  岩永彻也内场票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024.03.24 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>23</v>
+      </c>
+      <c r="G40" t="n">
+        <v>528</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81239</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/hww9WUpD1705914756383.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>70</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81078</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/o4cl1vwE1705635692432.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>杭州·第九届萌次元动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>226</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202311/8jSeAOZH1700636327971.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>杭州·2024ESCC游戏电竞博览会暨新次元微光青春动漫交流会</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024.04.05 09:30-04.05 16:30</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>68</v>
+      </c>
+      <c r="G43" t="n">
+        <v>75</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81450</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/49hIEgVb1706252734479.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>2024-04-27</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>杭州· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>金沙大道681号 金沙湖大剧院</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024.04.27 19:30-04.27 21:30</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F44" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" t="n">
         <v>180</v>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80936</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/qqwyEQLF1705476706621.jpeg</t>
         </is>
